--- a/biology/Zoologie/Faune_de_Guinée-Bissau/Faune_de_Guinée-Bissau.xlsx
+++ b/biology/Zoologie/Faune_de_Guinée-Bissau/Faune_de_Guinée-Bissau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Faune_de_Guin%C3%A9e-Bissau</t>
+          <t>Faune_de_Guinée-Bissau</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La faune de la Guinée-Bissau est composée de riche biodiversité en flore et de faune.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Faune_de_Guin%C3%A9e-Bissau</t>
+          <t>Faune_de_Guinée-Bissau</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,15 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les mammifères
-Porc de rivière rouge
-Des oiseaux
-Tourterelle à tête bleue
-Iris brillant-étourneau
-Reptiles
-Bitis rhinocéros
-On rapporte que l'environnement marin tropical de Guinée-Bissau présente une grande diversité de vie marine, notamment dans et autour de l'archipel des Bijagos. Les poissons comprennent le poisson- chat à beurre africain , Malapterurus occidentalis, Parablennius sierraensis (blenny à dents de peigne), cinq espèces de poisson-chat Synodontis, y compris les annectens, les ansorgii, le nigrita, le schall et les waterloti, le poisson-papillon à trois bandes et Trachinus pellegrini . Les tortues sont également dominantes, en particulier la tortue pelusios castaneus d'Afrique de l'Ouest.
-</t>
+          <t>Les mammifères</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Porc de rivière rouge</t>
         </is>
       </c>
     </row>
@@ -531,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Faune_de_Guin%C3%A9e-Bissau</t>
+          <t>Faune_de_Guinée-Bissau</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,10 +556,87 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Des oiseaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Tourterelle à tête bleue
+Iris brillant-étourneau</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Faune_de_Guinée-Bissau</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_de_Guin%C3%A9e-Bissau</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Reptiles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bitis rhinocéros
+On rapporte que l'environnement marin tropical de Guinée-Bissau présente une grande diversité de vie marine, notamment dans et autour de l'archipel des Bijagos. Les poissons comprennent le poisson- chat à beurre africain , Malapterurus occidentalis, Parablennius sierraensis (blenny à dents de peigne), cinq espèces de poisson-chat Synodontis, y compris les annectens, les ansorgii, le nigrita, le schall et les waterloti, le poisson-papillon à trois bandes et Trachinus pellegrini . Les tortues sont également dominantes, en particulier la tortue pelusios castaneus d'Afrique de l'Ouest.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Faune_de_Guinée-Bissau</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_de_Guin%C3%A9e-Bissau</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Flore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Flore de Guinée-Bissau</t>
         </is>
